--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H2">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I2">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J2">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N2">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O2">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P2">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q2">
-        <v>77.41145004707967</v>
+        <v>115.5267735109072</v>
       </c>
       <c r="R2">
-        <v>696.7030504237171</v>
+        <v>1039.740961598165</v>
       </c>
       <c r="S2">
-        <v>0.2871386720148457</v>
+        <v>0.4501727081745568</v>
       </c>
       <c r="T2">
-        <v>0.2871386720148458</v>
+        <v>0.4501727081745567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H3">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I3">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J3">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N3">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O3">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P3">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q3">
-        <v>79.11896577346734</v>
+        <v>31.75170202493333</v>
       </c>
       <c r="R3">
-        <v>712.0706919612061</v>
+        <v>285.7653182244</v>
       </c>
       <c r="S3">
-        <v>0.2934722802578283</v>
+        <v>0.1237267280589835</v>
       </c>
       <c r="T3">
-        <v>0.2934722802578283</v>
+        <v>0.1237267280589835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>404.138192</v>
       </c>
       <c r="I4">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J4">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N4">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O4">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P4">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q4">
-        <v>45.26118738757866</v>
+        <v>66.14992302172622</v>
       </c>
       <c r="R4">
-        <v>407.350686488208</v>
+        <v>595.349307195536</v>
       </c>
       <c r="S4">
-        <v>0.1678852060306381</v>
+        <v>0.2577661358249345</v>
       </c>
       <c r="T4">
-        <v>0.1678852060306381</v>
+        <v>0.2577661358249345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>404.138192</v>
       </c>
       <c r="I5">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J5">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N5">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O5">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P5">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q5">
-        <v>46.25954343454933</v>
+        <v>18.18083013077333</v>
       </c>
       <c r="R5">
-        <v>416.335890910944</v>
+        <v>163.62747117696</v>
       </c>
       <c r="S5">
-        <v>0.1715883614340158</v>
+        <v>0.07084516677910241</v>
       </c>
       <c r="T5">
-        <v>0.1715883614340159</v>
+        <v>0.07084516677910241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H6">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I6">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J6">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N6">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O6">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P6">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q6">
-        <v>0.04097223089533333</v>
+        <v>0.1599846990216667</v>
       </c>
       <c r="R6">
-        <v>0.368750078058</v>
+        <v>1.439862291195</v>
       </c>
       <c r="S6">
-        <v>0.0001519763802592078</v>
+        <v>0.000623411725579572</v>
       </c>
       <c r="T6">
-        <v>0.0001519763802592078</v>
+        <v>0.0006234117255795718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H7">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I7">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J7">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N7">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O7">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P7">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q7">
-        <v>0.04187598258266666</v>
+        <v>0.0439706428</v>
       </c>
       <c r="R7">
-        <v>0.376883843244</v>
+        <v>0.3957357852</v>
       </c>
       <c r="S7">
-        <v>0.0001553286241349425</v>
+        <v>0.0001713402248491189</v>
       </c>
       <c r="T7">
-        <v>0.0001553286241349425</v>
+        <v>0.0001713402248491189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H8">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I8">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J8">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N8">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O8">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P8">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q8">
-        <v>10.573878569027</v>
+        <v>19.37726821114722</v>
       </c>
       <c r="R8">
-        <v>95.16490712124299</v>
+        <v>174.395413900325</v>
       </c>
       <c r="S8">
-        <v>0.03922119335718591</v>
+        <v>0.07550732217768827</v>
       </c>
       <c r="T8">
-        <v>0.03922119335718591</v>
+        <v>0.07550732217768827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H9">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I9">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J9">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N9">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O9">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P9">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q9">
-        <v>10.807113625786</v>
+        <v>5.325702671333333</v>
       </c>
       <c r="R9">
-        <v>97.26402263207399</v>
+        <v>47.931324042</v>
       </c>
       <c r="S9">
-        <v>0.04008632124749614</v>
+        <v>0.02075264392509191</v>
       </c>
       <c r="T9">
-        <v>0.04008632124749614</v>
+        <v>0.02075264392509191</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H10">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I10">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J10">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.335983</v>
+        <v>0.4910443333333334</v>
       </c>
       <c r="N10">
-        <v>1.007949</v>
+        <v>1.473133</v>
       </c>
       <c r="O10">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="P10">
-        <v>0.4945457382278176</v>
+        <v>0.7844104380534107</v>
       </c>
       <c r="Q10">
-        <v>0.04008635571866666</v>
+        <v>0.08747414649566668</v>
       </c>
       <c r="R10">
-        <v>0.360777201468</v>
+        <v>0.7872673184610001</v>
       </c>
       <c r="S10">
-        <v>0.0001486904448886097</v>
+        <v>0.0003408601506515228</v>
       </c>
       <c r="T10">
-        <v>0.0001486904448886097</v>
+        <v>0.0003408601506515227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H11">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I11">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J11">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.343394</v>
+        <v>0.13496</v>
       </c>
       <c r="N11">
-        <v>1.030182</v>
+        <v>0.40488</v>
       </c>
       <c r="O11">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="P11">
-        <v>0.5054542617721824</v>
+        <v>0.2155895619465893</v>
       </c>
       <c r="Q11">
-        <v>0.04097056706933334</v>
+        <v>0.02404163944</v>
       </c>
       <c r="R11">
-        <v>0.368735103624</v>
+        <v>0.21637475496</v>
       </c>
       <c r="S11">
-        <v>0.000151970208707224</v>
+        <v>9.368295856232162E-05</v>
       </c>
       <c r="T11">
-        <v>0.000151970208707224</v>
+        <v>9.36829585623216E-05</v>
       </c>
     </row>
   </sheetData>
